--- a/MedicalLink/Templates/BC_BenhNhanSuDungDichVuPTTTTheoNhom.xlsx
+++ b/MedicalLink/Templates/BC_BenhNhanSuDungDichVuPTTTTheoNhom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HongNhat\Desktop\MedicalLink.git\trunk\MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="CNNK" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNNK!$A$1:$AF$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNNK!$A$1:$AF$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>TỔNG CỘNG</t>
   </si>
@@ -44,9 +44,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>&amp;=[DATA].THOIGIANBAOCAO</t>
   </si>
   <si>
@@ -234,6 +231,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].CHIPHILIENDOANH</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
   </si>
 </sst>
 </file>
@@ -246,7 +249,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -273,13 +276,6 @@
       <sz val="20"/>
       <color indexed="8"/>
       <name val="Times Ne"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -422,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -443,10 +439,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -465,53 +458,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -522,8 +503,11 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -806,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="AB1" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="AF9" sqref="A9:AF9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -825,9 +809,9 @@
     <col min="12" max="12" width="41.140625" style="1" customWidth="1"/>
     <col min="13" max="15" width="15.5703125" style="1" customWidth="1"/>
     <col min="16" max="17" width="18.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" style="16" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" style="15" customWidth="1"/>
     <col min="19" max="20" width="28.85546875" style="1" customWidth="1"/>
-    <col min="21" max="23" width="20.42578125" style="16" customWidth="1"/>
+    <col min="21" max="23" width="20.42578125" style="15" customWidth="1"/>
     <col min="24" max="25" width="15.5703125" style="1" customWidth="1"/>
     <col min="26" max="26" width="29.5703125" style="1" customWidth="1"/>
     <col min="27" max="27" width="15.5703125" style="1" customWidth="1"/>
@@ -838,8 +822,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="7" t="s">
-        <v>5</v>
+      <c r="A1" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="6"/>
@@ -853,428 +837,414 @@
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:32" ht="25.5">
-      <c r="D2" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="8"/>
+      <c r="A2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:32" ht="18.75">
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="27"/>
+    <row r="3" spans="1:32" ht="15.75">
+      <c r="E3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="17"/>
+      <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="1:32" ht="15.75">
-      <c r="D4" s="31" t="s">
+    <row r="5" spans="1:32">
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:32" s="14" customFormat="1" ht="28.5">
+      <c r="A6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF6" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
         <v>6</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="18"/>
+      <c r="G7" s="5">
+        <v>7</v>
+      </c>
+      <c r="H7" s="5">
+        <v>8</v>
+      </c>
+      <c r="I7" s="5">
+        <v>9</v>
+      </c>
+      <c r="J7" s="5">
+        <v>10</v>
+      </c>
+      <c r="K7" s="5">
+        <v>11</v>
+      </c>
+      <c r="L7" s="5">
+        <v>12</v>
+      </c>
+      <c r="M7" s="5">
+        <v>13</v>
+      </c>
+      <c r="N7" s="5">
+        <v>14</v>
+      </c>
+      <c r="O7" s="5">
+        <v>15</v>
+      </c>
+      <c r="P7" s="5">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>17</v>
+      </c>
+      <c r="R7" s="5">
+        <v>18</v>
+      </c>
+      <c r="S7" s="5">
+        <v>19</v>
+      </c>
+      <c r="T7" s="5">
+        <v>20</v>
+      </c>
+      <c r="U7" s="5">
+        <v>21</v>
+      </c>
+      <c r="V7" s="5">
+        <v>22</v>
+      </c>
+      <c r="W7" s="5">
+        <v>23</v>
+      </c>
+      <c r="X7" s="5">
+        <v>24</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>25</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>26</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>27</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>28</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>29</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>31</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" s="15" customFormat="1" ht="28.5">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="U7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="V7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="W7" s="19" t="s">
+    <row r="8" spans="1:32" s="21" customFormat="1" ht="45">
+      <c r="A8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="X7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC7" s="14" t="s">
+      <c r="C8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="U8" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="V8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="W8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z8" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA8" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC8" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE8" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="AD7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE7" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF7" s="14" t="s">
-        <v>49</v>
+      <c r="AF8" s="25" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5">
-        <v>5</v>
-      </c>
-      <c r="F8" s="5">
-        <v>6</v>
-      </c>
-      <c r="G8" s="5">
-        <v>7</v>
-      </c>
-      <c r="H8" s="5">
-        <v>8</v>
-      </c>
-      <c r="I8" s="5">
-        <v>9</v>
-      </c>
-      <c r="J8" s="5">
-        <v>10</v>
-      </c>
-      <c r="K8" s="5">
-        <v>11</v>
-      </c>
-      <c r="L8" s="5">
-        <v>12</v>
-      </c>
-      <c r="M8" s="5">
-        <v>13</v>
-      </c>
-      <c r="N8" s="5">
-        <v>14</v>
-      </c>
-      <c r="O8" s="5">
-        <v>15</v>
-      </c>
-      <c r="P8" s="5">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>17</v>
-      </c>
-      <c r="R8" s="5">
-        <v>18</v>
-      </c>
-      <c r="S8" s="5">
-        <v>19</v>
-      </c>
-      <c r="T8" s="5">
-        <v>20</v>
-      </c>
-      <c r="U8" s="5">
-        <v>21</v>
-      </c>
-      <c r="V8" s="5">
-        <v>22</v>
-      </c>
-      <c r="W8" s="5">
-        <v>23</v>
-      </c>
-      <c r="X8" s="5">
-        <v>24</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>25</v>
-      </c>
-      <c r="Z8" s="5">
-        <v>26</v>
-      </c>
-      <c r="AA8" s="5">
-        <v>27</v>
-      </c>
-      <c r="AB8" s="5">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="5">
-        <v>29</v>
-      </c>
-      <c r="AD8" s="5">
-        <v>30</v>
-      </c>
-      <c r="AE8" s="5">
-        <v>31</v>
-      </c>
-      <c r="AF8" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" s="23" customFormat="1" ht="45">
-      <c r="A9" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="P9" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="R9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="S9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="T9" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="U9" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="V9" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="W9" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="X9" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y9" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z9" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA9" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB9" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC9" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD9" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE9" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF9" s="37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="24.75" customHeight="1">
-      <c r="A10" s="34" t="s">
+    <row r="9" spans="1:32" ht="24.75" customHeight="1">
+      <c r="A9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2">
-        <f>SUM(O9:O9)</f>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2">
+        <f>SUM(O8:O8)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="2">
-        <f t="shared" ref="P10:Q10" si="0">SUM(P9:P9)</f>
+      <c r="P9" s="2">
+        <f t="shared" ref="P9:Q9" si="0">SUM(P8:P8)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R10" s="20"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="2">
-        <f t="shared" ref="X10:Y10" si="1">SUM(X9:X9)</f>
+      <c r="R9" s="18"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="2">
+        <f t="shared" ref="X9:Y9" si="1">SUM(X8:X8)</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y9" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2">
-        <f t="shared" ref="AC10" si="2">SUM(AC9:AC9)</f>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2">
+        <f t="shared" ref="AC9" si="2">SUM(AC8:AC8)</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="2">
-        <f t="shared" ref="AD10" si="3">SUM(AD9:AD9)</f>
+      <c r="AD9" s="2">
+        <f t="shared" ref="AD9" si="3">SUM(AD8:AD8)</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="2">
-        <f t="shared" ref="AE10" si="4">SUM(AE9:AE9)</f>
+      <c r="AE9" s="2">
+        <f t="shared" ref="AE9" si="4">SUM(AE8:AE8)</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="2">
-        <f t="shared" ref="AF10" si="5">SUM(AF9:AF9)</f>
+      <c r="AF9" s="2">
+        <f t="shared" ref="AF9" si="5">SUM(AF8:AF8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="Y12" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
+    <row r="11" spans="1:32">
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="Y11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="A10:C10"/>
+  <mergeCells count="4">
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E3:I3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
